--- a/biology/Médecine/Fasosante.net/Fasosante.net.xlsx
+++ b/biology/Médecine/Fasosante.net/Fasosante.net.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fasosante.net est un site Web burkinabè consacré à la santé au Burkina Faso créé en juillet 2006. Le Portail Santé offre aux citoyens et aux professionnels un accès privilégié et unique à toutes les informations utiles dans le domaine de la santé et du social. Il a pour ambition de soutenir les citoyens dans leur démarche de préservation de leur capital santé et de prévention des maladies, ainsi que de responsabiliser chacun d'entre eux dans la gestion de sa santé. Le site fasosante.net se décline sous d'autres thématiques telles que santé-environnement[1] et tic-santé. Le site web a reçu la certification HONcode pour la qualité de l'information médicale du site[2].
+Fasosante.net est un site Web burkinabè consacré à la santé au Burkina Faso créé en juillet 2006. Le Portail Santé offre aux citoyens et aux professionnels un accès privilégié et unique à toutes les informations utiles dans le domaine de la santé et du social. Il a pour ambition de soutenir les citoyens dans leur démarche de préservation de leur capital santé et de prévention des maladies, ainsi que de responsabiliser chacun d'entre eux dans la gestion de sa santé. Le site fasosante.net se décline sous d'autres thématiques telles que santé-environnement et tic-santé. Le site web a reçu la certification HONcode pour la qualité de l'information médicale du site.
 Eric Ismaël ZOUNGRANA, médecin diplômé d'État et épidémiologiste, en est le fondateur et le webmestre actuel.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fasosante.net tire ses origines du site web levillage.africa-web.org créé le 17 décembre 2005 en partenariat avec l'association Africa Computing. Cette dernière est une association d'aide au développement de l'usage de l'informatique sur le continent qui a cessé toutes ses activités depuis le 9 octobre 2007[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fasosante.net tire ses origines du site web levillage.africa-web.org créé le 17 décembre 2005 en partenariat avec l'association Africa Computing. Cette dernière est une association d'aide au développement de l'usage de l'informatique sur le continent qui a cessé toutes ses activités depuis le 9 octobre 2007.
 Le site a obtenu sa dernière certification HON en 2013, depuis il n’y a plus de mise à jour.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le site est quotidiennement mis à jour par l'ajout de nouveaux articles et la modification de ceux déjà existants. Le site est articulé en plusieurs parties:
 actualité médicale nationale et africaine,
@@ -584,9 +600,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site web a été primé Gambré d'Or (prix du meilleur site web dans la catégorie santé et protection sociale) juin 2006 (levillage.africa-web.org), 2007, 2008, 2009 et Prix spécial de l'Organisation mondiale de la santé (OMS) à la SNI  2007[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site web a été primé Gambré d'Or (prix du meilleur site web dans la catégorie santé et protection sociale) juin 2006 (levillage.africa-web.org), 2007, 2008, 2009 et Prix spécial de l'Organisation mondiale de la santé (OMS) à la SNI  2007.
 </t>
         </is>
       </c>
